--- a/Информация о проходах/Чулкова Наталья Николаевна.xlsx
+++ b/Информация о проходах/Чулкова Наталья Николаевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,12 +444,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>Неконтролируемая территория</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 07:41:59</t>
+          <t>2024-05-12 18:04:13</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 07:47:26</t>
+          <t>2024-05-31 13:42:49</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-03 08:57:21</t>
+          <t>2024-05-31 13:48:24</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-03 09:02:45</t>
+          <t>2024-05-31 14:40:08</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-03 10:02:22</t>
+          <t>2024-05-31 14:49:00</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-03 10:07:24</t>
+          <t>2024-05-31 15:44:38</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-06-03 10:48:11</t>
+          <t>2024-05-31 15:49:36</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-06-03 10:52:22</t>
+          <t>2024-05-31 16:26:59</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-06-03 12:12:43</t>
+          <t>2024-05-31 16:31:51</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-06-03 12:34:34</t>
+          <t>2024-05-31 16:57:00</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-03 13:46:46</t>
+          <t>2024-06-03 07:41:59</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-06-03 13:51:52</t>
+          <t>2024-06-03 07:47:26</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-06-03 16:05:30</t>
+          <t>2024-06-03 08:57:21</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-06-03 16:10:33</t>
+          <t>2024-06-03 09:02:45</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-06-03 16:55:10</t>
+          <t>2024-06-03 10:02:22</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-06-04 07:41:01</t>
+          <t>2024-06-03 10:07:24</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-06-04 10:38:16</t>
+          <t>2024-06-03 10:48:11</t>
         </is>
       </c>
     </row>
@@ -983,17 +983,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-06-04 11:57:58</t>
+          <t>2024-06-03 10:52:22</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-06-04 11:57:58</t>
+          <t>2024-06-03 12:12:43</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-06-04 12:08:27</t>
+          <t>2024-06-03 12:34:34</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-06-04 13:53:09</t>
+          <t>2024-06-03 13:46:46</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-06-04 13:58:47</t>
+          <t>2024-06-03 13:51:52</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-06-04 14:57:49</t>
+          <t>2024-06-03 16:05:30</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,423 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>2024-06-03 16:10:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-06-03 16:55:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-06-04 07:41:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-06-04 10:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-06-04 11:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-06-04 11:57:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-06-04 12:08:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-06-04 13:53:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-06-04 13:58:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-06-04 14:57:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>2024-06-04 15:03:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-06-04 16:05:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-06-04 16:10:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-06-04 16:56:59</t>
         </is>
       </c>
     </row>

--- a/Информация о проходах/Чулкова Наталья Николаевна.xlsx
+++ b/Информация о проходах/Чулкова Наталья Николаевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,12 +444,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Неконтролируемая территория</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-12 18:04:13</t>
+          <t>2024-06-03 07:41:59</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-31 13:42:49</t>
+          <t>2024-06-03 07:47:26</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-31 13:48:24</t>
+          <t>2024-06-03 08:57:21</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-31 14:40:08</t>
+          <t>2024-06-03 09:02:45</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-31 14:49:00</t>
+          <t>2024-06-03 10:02:22</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-31 15:44:38</t>
+          <t>2024-06-03 10:07:24</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-31 15:49:36</t>
+          <t>2024-06-03 10:48:11</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-31 16:26:59</t>
+          <t>2024-06-03 10:52:22</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-31 16:31:51</t>
+          <t>2024-06-03 12:12:43</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-31 16:57:00</t>
+          <t>2024-06-03 12:34:34</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-03 07:41:59</t>
+          <t>2024-06-03 13:46:46</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-06-03 07:47:26</t>
+          <t>2024-06-03 13:51:52</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-06-03 08:57:21</t>
+          <t>2024-06-03 16:05:30</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-06-03 09:02:45</t>
+          <t>2024-06-03 16:10:33</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-06-03 10:02:22</t>
+          <t>2024-06-03 16:55:10</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-06-03 10:07:24</t>
+          <t>2024-06-04 07:41:01</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-06-03 10:48:11</t>
+          <t>2024-06-04 10:38:16</t>
         </is>
       </c>
     </row>
@@ -983,17 +983,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-06-03 10:52:22</t>
+          <t>2024-06-04 11:57:58</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-06-03 12:12:43</t>
+          <t>2024-06-04 11:57:58</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-06-03 12:34:34</t>
+          <t>2024-06-04 12:08:27</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-06-03 13:46:46</t>
+          <t>2024-06-04 13:53:09</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-06-03 13:51:52</t>
+          <t>2024-06-04 13:58:47</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-06-03 16:05:30</t>
+          <t>2024-06-04 14:57:49</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-06-03 16:10:33</t>
+          <t>2024-06-04 15:03:35</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-06-03 16:55:10</t>
+          <t>2024-06-04 16:05:28</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-06-04 07:41:01</t>
+          <t>2024-06-04 16:10:45</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-06-04 10:38:16</t>
+          <t>2024-06-04 16:56:59</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-06-04 11:57:58</t>
+          <t>2024-06-05 07:39:38</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-06-04 11:57:58</t>
+          <t>2024-06-05 08:18:25</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-06-04 12:08:27</t>
+          <t>2024-06-05 08:22:23</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-06-04 13:53:09</t>
+          <t>2024-06-05 09:56:01</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-06-04 13:58:47</t>
+          <t>2024-06-05 09:59:42</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-06-04 14:57:49</t>
+          <t>2024-06-05 11:18:34</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-06-04 15:03:35</t>
+          <t>2024-06-05 11:22:13</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-06-04 16:05:28</t>
+          <t>2024-06-05 12:18:53</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-06-04 16:10:45</t>
+          <t>2024-06-05 12:27:20</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,3367 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2024-06-04 16:56:59</t>
+          <t>2024-06-05 14:01:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:06:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:40:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-06-05 16:06:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-06-05 16:11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-06-05 17:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-06-06 07:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-06-06 09:01:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-06-06 09:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-06-06 10:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-06-06 10:59:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:05:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:09:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:50:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-06-06 12:56:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-06-06 14:08:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024-06-06 14:17:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024-06-06 15:40:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2024-06-06 15:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2024-06-06 15:58:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2024-06-06 16:02:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024-06-06 16:55:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024-06-07 07:52:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2024-06-07 09:13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2024-06-07 09:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2024-06-07 10:41:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2024-06-07 10:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2024-06-07 11:50:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2024-06-07 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2024-06-07 12:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2024-06-07 12:29:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2024-06-07 13:30:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2024-06-07 13:40:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2024-06-07 14:47:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2024-06-07 14:53:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2024-06-07 16:56:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2024-06-08 08:42:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2024-06-08 17:50:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2024-06-10 07:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2024-06-10 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2024-06-10 09:33:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2024-06-10 09:51:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2024-06-10 10:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2024-06-10 10:57:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2024-06-10 11:57:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024-06-10 12:05:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-06-10 14:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-06-10 14:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2024-06-10 15:02:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024-06-10 15:07:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2024-06-10 16:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2024-06-10 16:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2024-06-10 16:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2024-06-11 07:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2024-06-11 08:31:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2024-06-11 08:37:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2024-06-11 09:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2024-06-11 09:06:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024-06-11 11:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:50:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2024-06-11 12:56:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2024-06-11 14:18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2024-06-11 14:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2024-06-11 15:54:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2024-06-13 07:53:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:34:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2024-06-13 09:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2024-06-13 16:15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2024-06-13 16:20:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2024-06-13 16:55:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2024-06-14 07:42:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2024-06-14 08:53:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2024-06-14 08:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2024-06-14 10:12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2024-06-14 11:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2024-06-14 11:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2024-06-14 16:54:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2024-06-17 07:44:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2024-06-17 08:58:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2024-06-17 16:55:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2024-06-18 07:44:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2024-06-18 16:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:49:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2024-06-19 16:55:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2024-06-20 07:54:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2024-06-20 16:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2024-06-21 07:47:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2024-06-21 16:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2024-06-24 07:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2024-06-25 09:11:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2024-06-25 17:28:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2024-06-26 07:38:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2024-06-26 16:58:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2024-06-27 07:38:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2024-06-27 16:56:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2024-06-28 07:40:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2024-06-28 16:57:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2024-07-01 07:44:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2024-07-01 16:58:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2024-07-02 07:44:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Чулкова Наталья Николаевна</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Машинист по стирке и ремонту спецодежды</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2024-07-03 07:43:59</t>
         </is>
       </c>
     </row>
